--- a/dirty_data.xlsx
+++ b/dirty_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samfi\Documents\git\janitor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dkuniv-my.sharepoint.com/personal/32232272_dankook_ac_kr/Documents/문서/janitor_update/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB444C5E-7B9A-480F-B39E-0A59DC2E76A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB444C5E-7B9A-480F-B39E-0A59DC2E76A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -230,18 +241,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -249,14 +260,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -277,15 +288,22 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -393,13 +411,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="제목 1" xfId="1" builtinId="16"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -714,34 +732,34 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.90625" customWidth="1"/>
-    <col min="5" max="5" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" customWidth="1"/>
+    <col min="4" max="4" width="13.8984375" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" ht="24.6" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="17" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="9" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -776,7 +794,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -810,7 +828,7 @@
       </c>
       <c r="L3" s="10"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -844,7 +862,7 @@
       </c>
       <c r="L4" s="10"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -878,7 +896,7 @@
       </c>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -913,7 +931,7 @@
       </c>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -944,7 +962,7 @@
       </c>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -978,7 +996,7 @@
       </c>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1012,11 +1030,11 @@
       </c>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E10" s="13"/>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1047,7 +1065,7 @@
       </c>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1078,7 +1096,7 @@
       </c>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1110,7 +1128,7 @@
       </c>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1139,7 +1157,7 @@
       </c>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1173,22 +1191,23 @@
       </c>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
